--- a/新建 XLSX 工作表 (2).xlsx
+++ b/新建 XLSX 工作表 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,9 +53,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,9 +66,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,25 +88,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,39 +135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +168,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +205,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,13 +295,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,157 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +408,11 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,15 +428,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +473,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -504,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,148 +510,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,6 +738,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -754,25 +773,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3568,8 +3568,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3737,7 +3737,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
